--- a/Daily Backup hourlys/30 min csh/NIFTY.xlsx
+++ b/Daily Backup hourlys/30 min csh/NIFTY.xlsx
@@ -586,19 +586,19 @@
       <c r="D7" s="1" t="n"/>
       <c r="E7" s="1" t="n"/>
       <c r="F7" s="2" t="n">
-        <v>19857</v>
+        <v>21641.8</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>19894.4</v>
+        <v>21680</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>19755.6</v>
+        <v>21164.15</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>19884.1</v>
+        <v>21217.05</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>19841.3</v>
+        <v>21217.05</v>
       </c>
       <c r="K7" s="2" t="n"/>
       <c r="L7" s="2" t="n"/>
@@ -649,13 +649,13 @@
         <v>0.3958333333333333</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>19859.85</v>
+        <v>21158</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>19826.8</v>
+        <v>21060</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>19845.1</v>
+        <v>21101.6</v>
       </c>
       <c r="J9" s="2" t="n"/>
       <c r="K9" s="2" t="n"/>
@@ -674,13 +674,13 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>19881</v>
+        <v>21173.9</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>19845</v>
+        <v>21081.1</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>19867.7</v>
+        <v>21157.25</v>
       </c>
       <c r="J10" s="2" t="n"/>
       <c r="K10" s="2" t="n"/>
@@ -699,13 +699,13 @@
         <v>0.4375</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>19878.45</v>
+        <v>21228.3</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>19852.6</v>
+        <v>21141.1</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>19863.9</v>
+        <v>21190.05</v>
       </c>
       <c r="J11" s="2" t="n"/>
       <c r="K11" s="2" t="n"/>
@@ -724,13 +724,13 @@
         <v>0.4583333333333333</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>19878.1</v>
+        <v>21244.95</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>19857.1</v>
+        <v>21140.1</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>19863.4</v>
+        <v>21236</v>
       </c>
       <c r="J12" s="2" t="n"/>
       <c r="K12" s="2" t="n"/>
@@ -749,13 +749,13 @@
         <v>0.4791666666666667</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>19870</v>
+        <v>21258.55</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>19848.8</v>
+        <v>21195.7</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>19853</v>
+        <v>21218</v>
       </c>
       <c r="J13" s="2" t="n"/>
       <c r="K13" s="2" t="n"/>
@@ -774,13 +774,13 @@
         <v>0.5</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>19865</v>
+        <v>21250.1</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>19815.6</v>
+        <v>21215</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>19832.1</v>
+        <v>21240</v>
       </c>
       <c r="J14" s="2" t="n"/>
       <c r="K14" s="2" t="n"/>
@@ -799,13 +799,13 @@
         <v>0.5208333333333334</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>19836.95</v>
+        <v>21289.5</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>19755.6</v>
+        <v>21235</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>19767.65</v>
+        <v>21285.4</v>
       </c>
       <c r="J15" s="2" t="n"/>
       <c r="K15" s="2" t="n"/>
@@ -824,13 +824,13 @@
         <v>0.5416666666666666</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>19802.5</v>
+        <v>21340</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>19765.35</v>
+        <v>21281.6</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>19792</v>
+        <v>21325.25</v>
       </c>
       <c r="J16" s="2" t="n"/>
       <c r="K16" s="2" t="n"/>
@@ -849,13 +849,13 @@
         <v>0.5625</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>19817.6</v>
+        <v>21333</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>19778</v>
+        <v>21297.05</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>19812.1</v>
+        <v>21321.1</v>
       </c>
       <c r="J17" s="2" t="n"/>
       <c r="K17" s="2" t="n"/>
@@ -874,13 +874,13 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>19818.75</v>
+        <v>21348</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>19795.55</v>
+        <v>21255.6</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>19798</v>
+        <v>21294.35</v>
       </c>
       <c r="J18" s="2" t="n"/>
       <c r="K18" s="2" t="n"/>
@@ -899,13 +899,13 @@
         <v>0.6041666666666666</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>19850</v>
+        <v>21328</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>19790.05</v>
+        <v>21258</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>19845.75</v>
+        <v>21324.15</v>
       </c>
       <c r="J19" s="2" t="n"/>
       <c r="K19" s="2" t="n"/>
@@ -924,13 +924,13 @@
         <v>0.625</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>19887.95</v>
+        <v>21375</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>19845.6</v>
+        <v>21317.7</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>19877</v>
+        <v>21345.9</v>
       </c>
       <c r="J20" s="2" t="n"/>
       <c r="K20" s="2" t="n"/>
@@ -949,13 +949,13 @@
         <v>0.6458333333333334</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>19894.4</v>
+        <v>21379.7</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>19875.1</v>
+        <v>21313.1</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>19886.6</v>
+        <v>21376</v>
       </c>
       <c r="J21" s="2" t="n"/>
       <c r="K21" s="2" t="n"/>
